--- a/TokaCards/Word Lists.xlsx
+++ b/TokaCards/Word Lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfd7839ca6e772a1/PJ - 02 - TOKALAB_fusion/01 - github repositories/Games/TokaGames/TokaCards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="11_AD4D5CB4E552A5DACE1C6408F8DF5B265ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F04B99A0-0A1A-4322-8059-AE97B468FC49}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="11_AD4D5CB4E552A5DACE1C6408F8DF5B265ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B40406A5-4035-4272-8020-1BDC67264F51}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forbidden" sheetId="1" r:id="rId1"/>
@@ -817,13 +817,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.265625" customWidth="1"/>
+    <col min="1" max="1" width="16.46484375" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.796875" customWidth="1"/>
@@ -1616,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AEE682-69A4-4613-8DF5-B4ECC1990761}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
